--- a/medicine/Psychotrope/Château-chalon_(AOC)/Château-chalon_(AOC).xlsx
+++ b/medicine/Psychotrope/Château-chalon_(AOC)/Château-chalon_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-chalon_(AOC)</t>
+          <t>Château-chalon_(AOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château-chalon[1] est un vin jaune d'appellation d'origine contrôlée produit autour de Château-Chalon dans le Vignoble du Jura.
+Le château-chalon est un vin jaune d'appellation d'origine contrôlée produit autour de Château-Chalon dans le Vignoble du Jura.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-chalon_(AOC)</t>
+          <t>Château-chalon_(AOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Anecdote historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors d'une rencontre avec Klemens Wenzel von Metternich en la résidence de ce dernier au Domaine Johannisberg, Napoléon III après avoir dégusté l'un des vins produits par ce domaine aurait affirmé « avoir bu le meilleur vin du monde ». Von Metternich lui aurait rétorqué : « Le meilleur vin du Monde est produit dans un petit canton de votre empire, à Château-Chalon... »[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'une rencontre avec Klemens Wenzel von Metternich en la résidence de ce dernier au Domaine Johannisberg, Napoléon III après avoir dégusté l'un des vins produits par ce domaine aurait affirmé « avoir bu le meilleur vin du monde ». Von Metternich lui aurait rétorqué : « Le meilleur vin du Monde est produit dans un petit canton de votre empire, à Château-Chalon... ».
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-chalon_(AOC)</t>
+          <t>Château-chalon_(AOC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone de production du vin jaune appellation Château-Chalon a une superficie de 50 hectares et est située à l'intérieur des communes du Jura de Château-Chalon et des communes voisines de Domblans, Menétru-le-Vignoble et Nevy-sur-Seille. Château-Chalon est en même temps le berceau jurassien historique du vin jaune.
 Le vignoble de Château-Chalon est constitué uniquement de cépage savagnin, qui est uniquement vinifié en vin jaune avec l'appellation communale Château-Chalon AOC déterminé par jury AOC seulement les années où toutes les caractéristiques sont réunies pour faire une appellation village AOC à défaut d'une appellation vin jaune traditionnelle.
-Plus de 400 hectares incluant le vignoble et ses alentours forment un site classé par décret du 16 janvier 2006 pour son caractère pittoresque et historique[6],[7].
+Plus de 400 hectares incluant le vignoble et ses alentours forment un site classé par décret du 16 janvier 2006 pour son caractère pittoresque et historique,.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-chalon_(AOC)</t>
+          <t>Château-chalon_(AOC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau-chalon_(AOC)</t>
+          <t>Château-chalon_(AOC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Appellation d'origine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1958, une commission de contrôle de l'AOC passe chaque année dans les vignes un peu avant les vendanges afin de contrôler si le raisin présente toutes les qualités requises pour être classé château-chalon. Cette commission nationale est composée de membres de la Chambre d'agriculture, de la Direction départementale de l'Agriculture et de la Forêt (DDAF), de l'Institut national de l'origine et de la qualité (INAO), de la Société de viticulture, du laboratoire d’analyse agricole et de producteurs et de négociants œnologies qui accordent ou non l'appellation château-chalon.
 			Vue d'une partie du vignoble de Château-Chalon.
